--- a/Separate_Data/Big_Mac_index_USD_Jul_2025.xlsx
+++ b/Separate_Data/Big_Mac_index_USD_Jul_2025.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Main Directory\Random Stuff\Countries_Data_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Main_Directory\Random_Stuff\Countries_Data_Analysis\Separate_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E85E129-0744-4931-A6AC-7D2787758681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9EF899-DDD9-4BDD-BD98-D87FE7E9013C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10598" yWindow="10702" windowWidth="20714" windowHeight="13156" xr2:uid="{538152C7-B54F-4254-83CA-E1C3C97B11D9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{538152C7-B54F-4254-83CA-E1C3C97B11D9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="big-max-index" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -340,7 +340,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -379,17 +379,17 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
